--- a/Assets/Resources/Entities/Game_BattleAbilities.xlsx
+++ b/Assets/Resources/Entities/Game_BattleAbilities.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -43,8 +43,7 @@
     <t>Fire Sword</t>
   </si>
   <si>
-    <t>Мгновенно наносит урон
-После наносит переодический урон каждый раунд</t>
+    <t>Мгновенно наносит огненный урон</t>
   </si>
   <si>
     <t>items-palette-swaps_210</t>
@@ -56,7 +55,7 @@
     <t>SingleEnemy</t>
   </si>
   <si>
-    <t>FireSword_InstantDamage, FireSword_TickDamage</t>
+    <t>FireSword_InstantDamage</t>
   </si>
   <si>
     <t>HolyShield</t>
@@ -75,6 +74,29 @@
   </si>
   <si>
     <t>HolyShield_IncreaseDefense</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>Fire Ball</t>
+  </si>
+  <si>
+    <t>Мгновенно наносит огненный урон
+Дополнительно наносить урон каждый раунд</t>
+  </si>
+  <si>
+    <t>FireBall_InstantDamage, FireBall_TickDamage</t>
+  </si>
+  <si>
+    <t>Backstub</t>
+  </si>
+  <si>
+    <t>Наносит урон
+Дополнительно снижает защиту</t>
+  </si>
+  <si>
+    <t>Backstub_InstantDamage, Backstub_TickDamage</t>
   </si>
 </sst>
 </file>
@@ -399,7 +421,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" ht="42.0" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -442,7 +464,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -485,15 +507,31 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    <row r="4" ht="38.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -512,15 +550,29 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+    <row r="5" ht="41.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -27406,10 +27458,10 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Active,Passive"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"SingleEnemy,AllEnemies,Self,Ally,AllAllies"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Assets/Resources/Entities/Game_BattleAbilities.xlsx
+++ b/Assets/Resources/Entities/Game_BattleAbilities.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Мгновенно наносит огненный урон</t>
   </si>
   <si>
-    <t>items-palette-swaps_210</t>
+    <t>fc1189</t>
   </si>
   <si>
     <t>Active</t>
@@ -67,7 +67,7 @@
     <t>Дает защиту дружественному юниту</t>
   </si>
   <si>
-    <t>items-palette-swaps_180</t>
+    <t>fc2151</t>
   </si>
   <si>
     <t>AllAllies</t>
@@ -86,6 +86,9 @@
 Дополнительно наносить урон каждый раунд</t>
   </si>
   <si>
+    <t>fc763</t>
+  </si>
+  <si>
     <t>FireBall_InstantDamage, FireBall_TickDamage</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
   <si>
     <t>Наносит урон
 Дополнительно снижает защиту</t>
+  </si>
+  <si>
+    <t>fc734</t>
   </si>
   <si>
     <t>Backstub_InstantDamage, Backstub_TickDamage</t>
@@ -518,7 +524,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>2.0</v>
@@ -530,7 +536,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -552,15 +558,17 @@
     </row>
     <row r="5" ht="41.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="1">
         <v>4.0</v>
       </c>
@@ -571,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
